--- a/data/trans_dic/P3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda unifamiliar independiente</t>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>55,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>61,6%</t>
+          <t>58,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,35%</t>
+          <t>63,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>60,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>56,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>56,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>51,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>53,23%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>52,83%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>56,38%</t>
+          <t>55,72%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>57,46%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>56,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>56,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>53,27%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>55,96%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>57,47%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>58,07%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>58,3%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,14; 63,06</t>
+          <t>40,48; 66,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,32; 69,85</t>
+          <t>41,24; 67,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,56; 66,99</t>
+          <t>53,91; 70,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,4; 67,68</t>
+          <t>50,71; 66,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,36; 36,74</t>
+          <t>38,2; 70,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,45; 61,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,39; 62,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,52; 57,54</t>
+          <t>41,96; 59,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,46; 59,17</t>
+          <t>45,48; 62,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,53; 46,93</t>
+          <t>45,79; 58,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,37; 60,93</t>
+          <t>50,16; 60,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,21; 63,9</t>
+          <t>47,59; 65,16</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>51,99; 60,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>51,41; 61,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>31,79; 40,39</t>
+          <t>45,88; 60,21</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>48,73; 62,4</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>50,93; 61,63</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>53,36; 62,09</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>48,89; 65,15</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,7%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,77%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,4%</t>
+          <t>48,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>52,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,71%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>48,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
+          <t>48,35%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>48,92%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>49,16%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>48,08%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>47,83%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>50,31%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47,34; 56,43</t>
+          <t>43,33; 57,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,71; 55,52</t>
+          <t>42,83; 55,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,57; 52,04</t>
+          <t>43,51; 53,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,2; 52,93</t>
+          <t>43,79; 52,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,7; 37,49</t>
+          <t>46,34; 59,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,75; 50,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,87; 52,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,22; 51,96</t>
+          <t>41,59; 53,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,98; 51,92</t>
+          <t>43,55; 54,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 34,0</t>
+          <t>43,6; 52,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,61; 52,39</t>
+          <t>43,54; 51,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>45,87; 52,76</t>
+          <t>43,16; 53,75</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>44,59; 50,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>44,88; 51,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>28,95; 35,04</t>
+          <t>44,67; 53,61</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>45,25; 53,11</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>44,74; 51,23</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>44,84; 50,89</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>46,0; 54,25</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>45,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>39,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>39,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>41,25%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>43,09%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>42,79%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>40,74%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>39,79%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,32; 51,27</t>
+          <t>38,4; 52,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,89; 49,91</t>
+          <t>39,12; 52,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,31; 51,84</t>
+          <t>40,36; 51,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,94; 47,87</t>
+          <t>37,79; 47,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,1; 45,67</t>
+          <t>33,37; 46,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,98; 48,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,8; 47,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,25; 45,44</t>
+          <t>31,96; 44,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,55; 43,29</t>
+          <t>35,21; 46,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 32,84</t>
+          <t>35,94; 44,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,18; 48,24</t>
+          <t>34,8; 43,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,0; 46,9</t>
+          <t>34,24; 44,92</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>40,05; 46,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>37,73; 44,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>28,27; 36,99</t>
+          <t>36,65; 45,89</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>38,93; 47,65</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>39,37; 46,27</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>37,66; 43,98</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>35,92; 43,38</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,63%</t>
+          <t>49,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>46,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>51,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>48,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>49,31%</t>
+          <t>42,77%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>48,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>51,59%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>49,39%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>47,67%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>47,21%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,75; 53,98</t>
+          <t>48,37; 56,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,29; 54,39</t>
+          <t>43,8; 54,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,16; 53,02</t>
+          <t>40,25; 52,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,31; 52,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,13; 36,62</t>
+          <t>45,34; 57,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,83; 50,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,33; 51,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,13; 49,24</t>
+          <t>47,76; 54,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,82; 49,3</t>
+          <t>44,63; 53,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,19; 36,5</t>
+          <t>43,25; 53,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47,73; 51,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>46,92; 51,54</t>
+          <t>37,41; 48,41</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>46,67; 50,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>46,03; 49,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>31,03; 35,48</t>
+          <t>49,09; 53,75</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>45,75; 52,68</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>43,76; 52,39</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>42,65; 51,25</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>51,18%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49,58%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49,46%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>49,08%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>49,92%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48,36%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47,87%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>46,99%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46,81%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>46,27%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>49,74%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>48,71%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>48,2%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>47,93%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>48,05%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48,14; 53,91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45,85; 52,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>46,48; 52,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>45,81; 52,23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>46,28; 53,63</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>45,87; 50,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45,08; 50,55</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>44,46; 49,65</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>44,27; 49,22</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>43,04; 49,23</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>47,82; 51,8</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>46,68; 50,92</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>46,09; 49,98</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>45,97; 50,0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>45,4; 50,19</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>388.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>126498</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>197732</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>334374</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>444088</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>266106</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>133535</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>228102</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>337381</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>500738</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>366199</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>260033</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>425834</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>671755</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>944826</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>632305</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>91676; 150572</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>139905; 229327</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>285845; 372285</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>369348; 487374</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>170883; 315993</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>109802; 156184</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>191798; 261938</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>292432; 373715</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>450803; 543862</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>303257; 415256</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>223959; 293930</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>370796; 474832</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>595250; 720404</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>868137; 1010179</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>530324; 706652</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>347.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>647.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>329313</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>464324</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>581837</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>780510</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>554356</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>338966</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>485739</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>590552</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>715809</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>521430</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>668278</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>950063</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1172389</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1496319</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1075786</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>282004; 373346</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>399410; 518802</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>525164; 645312</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>710338; 856142</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>491084; 625933</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>297423; 384543</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>435507; 542204</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>537033; 643002</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>655885; 779950</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>465521; 579639</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>610206; 732253</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>874463; 1026307</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1091070; 1249152</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1402649; 1592059</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>983531; 1160046</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>206667</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>327285</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>385459</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>465728</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>330663</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>200633</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>312568</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>379374</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>453766</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>354764</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>407301</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>639853</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>764833</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>919494</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>685428</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>175004; 241269</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>279920; 378190</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>341277; 431604</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>413259; 516391</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>276115; 381989</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>169904; 234878</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>270819; 356698</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>338444; 421973</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>404866; 501432</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>306509; 402115</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>361909; 453070</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>578081; 707487</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>703720; 827096</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>849942; 992516</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>618762; 747199</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>415.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>893.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>491.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1101919</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>718677</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>401223</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>551743</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1066871</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>694359</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>372592</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>418978</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2168790</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1413036</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>773815</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>970722</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1022716; 1184382</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>638307; 797690</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>346205; 453442</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>487998; 620332</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>998055; 1139120</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>626341; 751757</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>330063; 412027</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>366462; 474195</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2063913; 2259854</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1308887; 1506986</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>710303; 850494</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>876809; 1053794</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>693.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>587.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>682.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>671.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>786.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>645.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>783.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>788.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>592.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1479.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1232.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1465.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1459.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>1114.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1764397</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1708018</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1702893</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1690326</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1702869</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1740005</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1720767</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1679899</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1670313</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1661371</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>3504402</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3428786</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3382792</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>3360638</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>3364241</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1659629; 1858659</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1579527; 1821749</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1600214; 1811576</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1577769; 1798851</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1578490; 1829330</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1650518; 1829476</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1620364; 1816778</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1589389; 1775034</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1579613; 1756279</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1545301; 1767446</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>3369168; 3649567</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>3286045; 3584384</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>3234309; 3507455</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>3223738; 3505997</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>3178355; 3514162</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
